--- a/emergency.xlsx
+++ b/emergency.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chauhan\Desktop\Heeya\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDA88F8-F312-4931-9971-2F962A601614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EMERGENCY_07" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,9 +69,6 @@
     <t>3150501</t>
   </si>
   <si>
-    <t>NEW 35</t>
-  </si>
-  <si>
     <t>F-106</t>
   </si>
   <si>
@@ -206,13 +204,16 @@
     <t>3161613</t>
   </si>
   <si>
-    <t>NEW_4</t>
+    <t>35</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,6 +336,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -343,21 +359,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,27 +639,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="11" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="11" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,7 +688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -704,506 +705,506 @@
         <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="H8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="D19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="C20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="H20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
